--- a/Mifos Automation Excels/Client/Scenario2-Chaithanyaprod-ONTIME-TR1-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/Scenario2-Chaithanyaprod-ONTIME-TR1-Makerepayment1.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,7 @@
         <v>6755.44</v>
       </c>
       <c r="F3" s="8">
-        <v>5490.41</v>
+        <v>5059.01</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2835</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2833</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
